--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes_ML\Tugas_PraktikumML-D_219-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1D3FE-B395-4AC7-BFAA-102B82F04B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700A9B2-0EB9-4627-9948-D8F4F64E1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Penanggung Jawab</t>
   </si>
   <si>
-    <t>Database Desain</t>
-  </si>
-  <si>
     <t>Preprocessing</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Database selection</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -90,12 +93,18 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,16 +119,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,147 +417,155 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44488</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44491</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>44488</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>44491</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44493</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44495</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44501</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>44506</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44506</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44513</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
-        <v>44513</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44520</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes_ML\Tugas_PraktikumML-D_219-231\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annisa Fitria N\Documents\Kuliah\Semester 7\Pembelajaran Mesin\Tugas_PraktikumML-D_219-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1D3FE-B395-4AC7-BFAA-102B82F04B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A2DDD-0D02-419F-98FD-8CAAA424E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Sprint Project</t>
   </si>
@@ -33,50 +33,74 @@
     <t>No</t>
   </si>
   <si>
-    <t>JobDesc</t>
-  </si>
-  <si>
     <t>Penanggung Jawab</t>
   </si>
   <si>
-    <t>Database Desain</t>
-  </si>
-  <si>
     <t>Preprocessing</t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Model Interface</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi Data</t>
-  </si>
-  <si>
     <t>Fitri</t>
   </si>
   <si>
     <t>Fira</t>
   </si>
   <si>
-    <t>Target Penyelesaian</t>
-  </si>
-  <si>
     <t>Tanggal Selesai</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Load Data</t>
+  </si>
+  <si>
+    <t>Modelling (1st Scenario)</t>
+  </si>
+  <si>
+    <t>Modelling (2nd Scenario)</t>
+  </si>
+  <si>
+    <t>Data Augmentation</t>
+  </si>
+  <si>
+    <t>Data Augmentation 1 &amp; Normalization</t>
+  </si>
+  <si>
+    <t>Splitting Data</t>
+  </si>
+  <si>
+    <t>Modelling (3rd Scenario)</t>
+  </si>
+  <si>
+    <t>Modelling (4th Scenario)</t>
+  </si>
+  <si>
+    <t>Plotting &amp; Saving Models (Batch 1)</t>
+  </si>
+  <si>
+    <t>Plotting &amp; Saving Models (Batch 2)</t>
+  </si>
+  <si>
+    <t>Target Selesai</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>Modelling (5th Scenario)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +109,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -110,17 +143,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,154 +450,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44488</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44494</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44495</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44494</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44501</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44494</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44506</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44496</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44513</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44496</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44520</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44496</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44520</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44520</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44520</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44488</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D13" s="3">
+        <v>44520</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>44495</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44506</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44513</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D14" s="3">
         <v>44520</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44521</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
